--- a/WildCaptive/wild.captive.con_krusk_simper.xlsx
+++ b/WildCaptive/wild.captive.con_krusk_simper.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/WildCaptive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{4454AC8C-A661-415D-AFC6-08E398B4C0DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5BF808E5-2350-4FBA-9D98-0468796BF26F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{4454AC8C-A661-415D-AFC6-08E398B4C0DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCCADC0F-D3C9-4031-B814-6F19AE82BDFC}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="825" windowWidth="13335" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wild.captive_krusk_simper" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -966,15 +977,15 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="90.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
